--- a/Proyecto_Grupo3/Interfaces.xlsx
+++ b/Proyecto_Grupo3/Interfaces.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
